--- a/va_facility_data_2025-02-20/Union Boulevard VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Union%20Boulevard%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Union Boulevard VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Union%20Boulevard%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd8808bca62ac4f2fb1e5d80fcf88c6f9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R391f25491fa349a0ad7ca8f9195e37d5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcaab68d8ad594bc0a0274d58d4013625"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Reedc3534f40247c586b5df4ccacbd358"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc1145d59a3db4da991e3a063d2561e9d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rebad848d010c4d1e96ec4ef3aabaaed6"/>
   </x:sheets>
 </x:workbook>
 </file>
